--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,123 +43,156 @@
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>kill</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fear</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>affected</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>banks</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -175,139 +208,169 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>safety</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>day</t>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>corona</t>
@@ -668,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -737,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -755,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -787,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.92</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K4">
         <v>0.95</v>
@@ -837,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -887,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8648648648648649</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K6">
-        <v>0.9216710182767625</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>353</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.863013698630137</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C7">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>252</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K7">
-        <v>0.8984375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +1050,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="K8">
-        <v>0.8962264150943396</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
         <v>32</v>
@@ -1055,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1079,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7931034482758621</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.90625</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7826086956521739</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="K11">
-        <v>0.8928571428571429</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1250,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7826086956521739</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,16 +1271,16 @@
         <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K12">
-        <v>0.8837209302325582</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1229,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7666666666666667</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K13">
-        <v>0.8787878787878788</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7647058823529411</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,31 +1368,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L14">
+        <v>94</v>
+      </c>
+      <c r="M14">
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>12</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K14">
-        <v>0.86875</v>
-      </c>
-      <c r="L14">
-        <v>139</v>
-      </c>
-      <c r="M14">
-        <v>139</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,16 +1421,16 @@
         <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.86875</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7333333333333333</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7286821705426356</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>376</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K17">
-        <v>0.8076923076923077</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.717948717948718</v>
+        <v>0.8</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="K18">
-        <v>0.8055555555555556</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1529,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1537,13 +1600,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.717948717948718</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.708994708994709</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C20">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7037037037037037</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K21">
-        <v>0.7676470588235295</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L21">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6949152542372882</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K22">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6666666666666666</v>
+        <v>0.7344961240310077</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>379</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>379</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1755,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1779,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6486486486486487</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="K24">
-        <v>0.7405857740585774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L24">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1829,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6442953020134228</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C25">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1855,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K25">
-        <v>0.7254237288135593</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L25">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1879,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6181818181818182</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.7142857142857143</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +2000,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5806451612903226</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K27">
-        <v>0.7078651685393258</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M27">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +2050,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5600000000000001</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K28">
-        <v>0.6923076923076923</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,13 +2100,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5444444444444444</v>
+        <v>0.6875</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2055,19 +2118,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29">
-        <v>0.6914893617021277</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2079,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2150,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5384615384615384</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K30">
-        <v>0.6666666666666666</v>
+        <v>0.7489539748953975</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2129,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,13 +2200,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5277777777777778</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2155,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K31">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2179,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2187,13 +2250,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5161290322580645</v>
+        <v>0.6577181208053692</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2205,19 +2268,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K32">
-        <v>0.6470588235294118</v>
+        <v>0.7303370786516854</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2229,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2237,13 +2300,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.509090909090909</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2255,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33">
-        <v>0.6142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2279,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2287,13 +2350,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2305,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2329,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2337,13 +2400,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2355,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K35">
-        <v>0.5616438356164384</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2379,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2387,13 +2450,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4821428571428572</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C36">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2405,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K36">
-        <v>0.5555555555555556</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2429,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2437,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4155844155844156</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2455,19 +2518,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K37">
-        <v>0.5454545454545454</v>
+        <v>0.7074829931972789</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2476,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2487,13 +2550,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D38">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2505,19 +2568,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K38">
-        <v>0.5416666666666666</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2529,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2537,13 +2600,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3293650793650794</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C39">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2555,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>0.5185185185185185</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2579,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2587,13 +2650,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.25</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2605,19 +2668,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="K40">
-        <v>0.5161290322580645</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2629,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2637,13 +2700,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.193029490616622</v>
+        <v>0.52</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2655,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>301</v>
+        <v>36</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>0.5128205128205128</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2679,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2687,13 +2750,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1533333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C42">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2705,19 +2768,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="K42">
-        <v>0.4918032786885246</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2729,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2737,257 +2800,781 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005797101449275362</v>
+        <v>0.4375</v>
       </c>
       <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>45</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L43">
+        <v>44</v>
+      </c>
+      <c r="M43">
+        <v>44</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>51</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44">
+        <v>0.609375</v>
+      </c>
+      <c r="L44">
+        <v>39</v>
+      </c>
+      <c r="M44">
+        <v>39</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>33</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>44</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K45">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
         <v>18</v>
       </c>
-      <c r="D43">
+      <c r="J46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K46">
+        <v>0.5952380952380952</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>25</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="C47">
+        <v>91</v>
+      </c>
+      <c r="D47">
+        <v>91</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>161</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+      <c r="M47">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>36</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L48">
+        <v>15</v>
+      </c>
+      <c r="M48">
+        <v>15</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
+      <c r="M49">
+        <v>40</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.2412868632707775</v>
+      </c>
+      <c r="C50">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>283</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K50">
+        <v>0.5409836065573771</v>
+      </c>
+      <c r="L50">
+        <v>33</v>
+      </c>
+      <c r="M50">
+        <v>33</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>13</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>46</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K51">
+        <v>0.5128205128205128</v>
+      </c>
+      <c r="L51">
+        <v>40</v>
+      </c>
+      <c r="M51">
+        <v>40</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.14</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>258</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K52">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L52">
+        <v>27</v>
+      </c>
+      <c r="M52">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.01551724137931034</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>0.05</v>
+      </c>
+      <c r="F53">
+        <v>0.95</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1142</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K53">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.01096774193548387</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>41</v>
+      </c>
+      <c r="E54">
+        <v>0.17</v>
+      </c>
+      <c r="F54">
+        <v>0.83</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>3066</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K54">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="L54">
+        <v>23</v>
+      </c>
+      <c r="M54">
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="J55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K55">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L55">
+        <v>30</v>
+      </c>
+      <c r="M55">
+        <v>31</v>
+      </c>
+      <c r="N55">
+        <v>0.97</v>
+      </c>
+      <c r="O55">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K56">
+        <v>0.2258064516129032</v>
+      </c>
+      <c r="L56">
+        <v>28</v>
+      </c>
+      <c r="M56">
+        <v>28</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K57">
+        <v>0.1027027027027027</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K59">
+        <v>0.03125</v>
+      </c>
+      <c r="L59">
+        <v>13</v>
+      </c>
+      <c r="M59">
+        <v>13</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K60">
+        <v>0.02111111111111111</v>
+      </c>
+      <c r="L60">
+        <v>19</v>
+      </c>
+      <c r="M60">
         <v>20</v>
       </c>
-      <c r="E43">
-        <v>0.1</v>
-      </c>
-      <c r="F43">
-        <v>0.9</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>3087</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>13</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K44">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K45">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="L45">
-        <v>25</v>
-      </c>
-      <c r="M45">
-        <v>25</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="N60">
+        <v>0.95</v>
+      </c>
+      <c r="O60">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K61">
+        <v>0.006271558482282847</v>
+      </c>
+      <c r="L61">
+        <v>20</v>
+      </c>
+      <c r="M61">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K46">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L46">
-        <v>18</v>
-      </c>
-      <c r="M46">
-        <v>18</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="L47">
-        <v>23</v>
-      </c>
-      <c r="M47">
-        <v>23</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K48">
-        <v>0.328125</v>
-      </c>
-      <c r="L48">
-        <v>21</v>
-      </c>
-      <c r="M48">
-        <v>21</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49">
-        <v>0.1370967741935484</v>
-      </c>
-      <c r="L49">
-        <v>17</v>
-      </c>
-      <c r="M49">
-        <v>17</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K50">
-        <v>0.1048951048951049</v>
-      </c>
-      <c r="L50">
-        <v>15</v>
-      </c>
-      <c r="M50">
-        <v>15</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K51">
-        <v>0.005639097744360902</v>
-      </c>
-      <c r="L51">
-        <v>18</v>
-      </c>
-      <c r="M51">
-        <v>27</v>
-      </c>
-      <c r="N51">
-        <v>0.67</v>
-      </c>
-      <c r="O51">
-        <v>0.33</v>
-      </c>
-      <c r="P51" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>3174</v>
+      <c r="N61">
+        <v>0.62</v>
+      </c>
+      <c r="O61">
+        <v>0.38</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
